--- a/InputData/elec/MPCbS/Max Potential Capacity by Source.xlsx
+++ b/InputData/elec/MPCbS/Max Potential Capacity by Source.xlsx
@@ -1,35 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robbie\Dropbox (Energy InNovation)\My Documents\Policy Solutions Project\India\India EPS\InputData UPDATE FOR INDIA\elec\MPCbS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deept\Dropbox\EPS\Input Data for India 2.0\elec\MPCbS\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A155FBCF-83D0-4E1D-8383-0974F5C54B21}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="405" windowWidth="22755" windowHeight="12300"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Biomass" sheetId="6" r:id="rId2"/>
-    <sheet name="MPCbS" sheetId="3" r:id="rId3"/>
+    <sheet name="MSW" sheetId="7" r:id="rId3"/>
+    <sheet name="MPCbS" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="105">
   <si>
     <t>MPCbS Max Potential Capacity by Source</t>
   </si>
   <si>
     <t>Source:</t>
-  </si>
-  <si>
-    <t>Solar, Wind, Biomass</t>
   </si>
   <si>
     <t>State wise renewable Energy Potential</t>
@@ -237,9 +244,6 @@
     <t>lignite</t>
   </si>
   <si>
-    <t>All Except Biomass</t>
-  </si>
-  <si>
     <t>WWF &amp; TERI</t>
   </si>
   <si>
@@ -250,13 +254,109 @@
   </si>
   <si>
     <t>Appendix A2</t>
+  </si>
+  <si>
+    <t>All Except Biomass, Onshore Wind</t>
+  </si>
+  <si>
+    <t>Biomass</t>
+  </si>
+  <si>
+    <t>file:///C:/Users/deept/AppData/Local/Temp/CSTEP_RR_Re-assessment_of_India's_On-shore_Wind_Power_Potential_2016.pdf</t>
+  </si>
+  <si>
+    <t>Onshore Wind</t>
+  </si>
+  <si>
+    <t>Source: MNRE</t>
+  </si>
+  <si>
+    <t>Source: CSTEP, WFMS, SSEF</t>
+  </si>
+  <si>
+    <t>(5Dx7D array potential - conservative)</t>
+  </si>
+  <si>
+    <t>Re-assessment of India’s On-shore Wind Power Potential</t>
+  </si>
+  <si>
+    <t>CSTEP, WFMS, SSEF - for MNRE's Wind Potential Reassessment Committee</t>
+  </si>
+  <si>
+    <t>Appendix 2, pp 61</t>
+  </si>
+  <si>
+    <t>Notes:</t>
+  </si>
+  <si>
+    <t>On-shore wind potential has been reassessed by CSTEP, WFMS &amp; SSEF study as part of MNRE's Potential Re-assessment committee in 2016</t>
+  </si>
+  <si>
+    <t>New estimate of on-shore wind potential for 100m hub height is considered, for a conservative wind farm array configuration of 5Dx7D</t>
+  </si>
+  <si>
+    <t>be geographically resource-constrained. (An arbitrarily high number is chosen here, to ensure</t>
+  </si>
+  <si>
+    <t>this limit doesn't come into play for these three electricity sources.)</t>
+  </si>
+  <si>
+    <t>These maximums reflect the available resource potential for hydro, wind, solar, biomass, and geothermal power.</t>
+  </si>
+  <si>
+    <t>Maximums for coal, natural gas, petroleum, and nuclear are not imposed, as these power types are unlikely to</t>
+  </si>
+  <si>
+    <t>http://www.gcpcenvis.nic.in/PDF/Waste%20to%20Energy.pdf</t>
+  </si>
+  <si>
+    <t>Waste to Energy Potential for MSW</t>
+  </si>
+  <si>
+    <t>Gujarat Cleaner Production Centre</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Waste to Energy - ENVIS Centre</t>
+  </si>
+  <si>
+    <t>India Waste to Energy Potential</t>
+  </si>
+  <si>
+    <t>Urban</t>
+  </si>
+  <si>
+    <t>MW</t>
+  </si>
+  <si>
+    <t>Industrial</t>
+  </si>
+  <si>
+    <t>crude oil</t>
+  </si>
+  <si>
+    <t>heavy or residual fuel oil</t>
+  </si>
+  <si>
+    <t>municipal solid waste</t>
+  </si>
+  <si>
+    <t>Remaining sources from TERI-WWF study, except for Biomass and MSW from MNRE latest available potential estimate.</t>
+  </si>
+  <si>
+    <t>Page 4, in lieu of MNRE source no longer available on their site</t>
+  </si>
+  <si>
+    <t>Source: Gujarat ENVIS Centre</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -276,6 +376,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -308,7 +416,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -321,6 +429,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -337,6 +446,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>363572</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>76975</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B775AC01-CD3C-468B-88A7-40DEDF2021FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5849972" y="0"/>
+          <a:ext cx="5809403" cy="5829299"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -415,6 +573,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -450,6 +625,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -625,154 +817,247 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="60.85546875" customWidth="1"/>
+    <col min="6" max="6" width="55.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="F4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" s="3">
         <v>2011</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F5" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B7" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+      <c r="F8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <v>2017</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B14" s="4" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>6</v>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="3">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B14" r:id="rId1"/>
+    <hyperlink ref="B14" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B7" r:id="rId2" xr:uid="{DC20D54A-5AD2-4849-A5BC-729AF867E8C5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:G27"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
         <v>19</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>20</v>
-      </c>
-      <c r="I2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="D3" t="s">
         <v>17</v>
       </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
       <c r="E3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="G3" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -780,7 +1065,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4">
         <v>14497</v>
@@ -809,7 +1094,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5">
         <v>236</v>
@@ -832,7 +1117,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6">
         <v>112</v>
@@ -858,7 +1143,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7">
         <v>144</v>
@@ -887,7 +1172,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8">
         <v>314</v>
@@ -913,7 +1198,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9">
         <v>7</v>
@@ -933,7 +1218,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C10">
         <v>35071</v>
@@ -962,7 +1247,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C11">
         <v>93</v>
@@ -991,7 +1276,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C12">
         <v>64</v>
@@ -1017,7 +1302,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C13">
         <v>5685</v>
@@ -1040,7 +1325,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C14">
         <v>91</v>
@@ -1066,7 +1351,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C15">
         <v>13593</v>
@@ -1092,7 +1377,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C16">
         <v>837</v>
@@ -1113,12 +1398,12 @@
         <v>8732</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C17">
         <v>2931</v>
@@ -1139,12 +1424,12 @@
         <v>66853</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C18">
         <v>5961</v>
@@ -1168,12 +1453,12 @@
         <v>74500</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C19">
         <v>56</v>
@@ -1194,12 +1479,12 @@
         <v>10811</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C20">
         <v>82</v>
@@ -1220,12 +1505,12 @@
         <v>6185</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D21">
         <v>169</v>
@@ -1243,12 +1528,12 @@
         <v>9261</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C22">
         <v>16</v>
@@ -1266,12 +1551,12 @@
         <v>7513</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C23">
         <v>1384</v>
@@ -1292,12 +1577,12 @@
         <v>27728</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D24">
         <v>441</v>
@@ -1318,12 +1603,12 @@
         <v>6768</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C25">
         <v>5050</v>
@@ -1344,12 +1629,12 @@
         <v>148518</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C26">
         <v>98</v>
@@ -1367,12 +1652,12 @@
         <v>5307</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C27">
         <v>14152</v>
@@ -1396,12 +1681,12 @@
         <v>34152</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H28">
         <v>20410</v>
@@ -1410,12 +1695,12 @@
         <v>20410</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D29">
         <v>47</v>
@@ -1432,13 +1717,16 @@
       <c r="I29">
         <v>2131</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K29" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C30">
         <v>1260</v>
@@ -1462,12 +1750,12 @@
         <v>27593</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C31">
         <v>534</v>
@@ -1488,12 +1776,12 @@
         <v>19071</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C32">
         <v>22</v>
@@ -1519,7 +1807,7 @@
         <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C33">
         <v>365</v>
@@ -1539,7 +1827,7 @@
         <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G34">
         <v>6</v>
@@ -1556,7 +1844,7 @@
         <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -1570,7 +1858,7 @@
         <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C36">
         <v>4</v>
@@ -1587,7 +1875,7 @@
         <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G37">
         <v>131</v>
@@ -1604,7 +1892,7 @@
         <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -1618,7 +1906,7 @@
         <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C39">
         <v>120</v>
@@ -1638,7 +1926,7 @@
         <v>37</v>
       </c>
       <c r="B40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G40">
         <v>1022</v>
@@ -1652,7 +1940,7 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C41">
         <v>102772</v>
@@ -1676,20 +1964,74 @@
         <v>896602</v>
       </c>
     </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>77</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4740AD8C-9B9A-4B25-9546-CEBF6367C655}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2">
+        <v>1700</v>
+      </c>
+      <c r="C2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3">
+        <v>1300</v>
+      </c>
+      <c r="C3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1700,15 +2042,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B2" s="6">
         <f>9*10^12</f>
@@ -1717,7 +2059,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B3" s="6">
         <f>9*10^12</f>
@@ -1726,7 +2068,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B4" s="6">
         <f>9*10^12</f>
@@ -1735,7 +2077,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <f>(148+15)*10^3</f>
@@ -1744,15 +2086,15 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>3121000</v>
+        <v>2760000</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <v>1400000</v>
@@ -1760,7 +2102,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="5">
         <f>B7</f>
@@ -1769,7 +2111,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <f>SUM(Biomass!E41:G41)</f>
@@ -1778,7 +2120,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="5">
         <v>10600</v>
@@ -1786,7 +2128,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B11" s="6">
         <f>9*10^12</f>
@@ -1795,7 +2137,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B12" s="6">
         <f>9*10^12</f>
@@ -1804,7 +2146,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B13" s="6">
         <f>B2</f>
@@ -1813,15 +2155,38 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="5">
         <v>500000</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
+      <c r="A15" t="s">
+        <v>99</v>
+      </c>
+      <c r="B15" s="6">
+        <f>B11</f>
+        <v>9000000000000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B16" s="6">
+        <f>B11</f>
+        <v>9000000000000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>101</v>
+      </c>
+      <c r="B17" s="6">
+        <f>MSW!B2+MSW!B3</f>
+        <v>3000</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/InputData/elec/MPCbS/Max Potential Capacity by Source.xlsx
+++ b/InputData/elec/MPCbS/Max Potential Capacity by Source.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deept\Dropbox\EPS\Input Data for India 2.0\elec\MPCbS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-india\InputData\elec\MPCbS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A155FBCF-83D0-4E1D-8383-0974F5C54B21}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
     <sheet name="MSW" sheetId="7" r:id="rId3"/>
     <sheet name="MPCbS" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -355,7 +354,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -573,23 +572,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -625,23 +607,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -817,23 +782,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="60.85546875" customWidth="1"/>
-    <col min="6" max="6" width="55.28515625" customWidth="1"/>
+    <col min="2" max="2" width="60.86328125" customWidth="1"/>
+    <col min="6" max="6" width="55.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -844,7 +809,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>69</v>
       </c>
@@ -852,7 +817,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5" s="3">
         <v>2011</v>
       </c>
@@ -860,7 +825,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>70</v>
       </c>
@@ -868,7 +833,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B7" s="4" t="s">
         <v>71</v>
       </c>
@@ -876,7 +841,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>72</v>
       </c>
@@ -884,115 +849,115 @@
         <v>103</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B10" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B12" s="3">
         <v>2017</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B14" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B17" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B18" s="7" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B19" s="3">
         <v>2016</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B23" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>102</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B14" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B7" r:id="rId2" xr:uid="{DC20D54A-5AD2-4849-A5BC-729AF867E8C5}"/>
+    <hyperlink ref="B14" r:id="rId1"/>
+    <hyperlink ref="B7" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
@@ -1000,21 +965,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1037,7 +1002,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1060,7 +1025,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1089,7 +1054,7 @@
         <v>54916</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1112,7 +1077,7 @@
         <v>10236</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1138,7 +1103,7 @@
         <v>14330</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1167,7 +1132,7 @@
         <v>12559</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>5</v>
       </c>
@@ -1193,7 +1158,7 @@
         <v>19951</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>6</v>
       </c>
@@ -1213,7 +1178,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>7</v>
       </c>
@@ -1242,7 +1207,7 @@
         <v>72726</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>8</v>
       </c>
@@ -1271,7 +1236,7 @@
         <v>6470</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>9</v>
       </c>
@@ -1297,7 +1262,7 @@
         <v>36446</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>10</v>
       </c>
@@ -1320,7 +1285,7 @@
         <v>118208</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>11</v>
       </c>
@@ -1346,7 +1311,7 @@
         <v>18580</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>12</v>
       </c>
@@ -1372,7 +1337,7 @@
         <v>44015</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>13</v>
       </c>
@@ -1398,7 +1363,7 @@
         <v>8732</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>14</v>
       </c>
@@ -1424,7 +1389,7 @@
         <v>66853</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>15</v>
       </c>
@@ -1453,7 +1418,7 @@
         <v>74500</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>16</v>
       </c>
@@ -1479,7 +1444,7 @@
         <v>10811</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>17</v>
       </c>
@@ -1505,7 +1470,7 @@
         <v>6185</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>18</v>
       </c>
@@ -1528,7 +1493,7 @@
         <v>9261</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>19</v>
       </c>
@@ -1551,7 +1516,7 @@
         <v>7513</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>20</v>
       </c>
@@ -1577,7 +1542,7 @@
         <v>27728</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>21</v>
       </c>
@@ -1603,7 +1568,7 @@
         <v>6768</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>22</v>
       </c>
@@ -1629,7 +1594,7 @@
         <v>148518</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>23</v>
       </c>
@@ -1652,7 +1617,7 @@
         <v>5307</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>24</v>
       </c>
@@ -1681,7 +1646,7 @@
         <v>34152</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>25</v>
       </c>
@@ -1695,7 +1660,7 @@
         <v>20410</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>26</v>
       </c>
@@ -1721,7 +1686,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>27</v>
       </c>
@@ -1750,7 +1715,7 @@
         <v>27593</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>28</v>
       </c>
@@ -1776,7 +1741,7 @@
         <v>19071</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>29</v>
       </c>
@@ -1802,7 +1767,7 @@
         <v>7222</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>30</v>
       </c>
@@ -1822,7 +1787,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>31</v>
       </c>
@@ -1839,7 +1804,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>32</v>
       </c>
@@ -1853,7 +1818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>33</v>
       </c>
@@ -1870,7 +1835,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>34</v>
       </c>
@@ -1887,7 +1852,7 @@
         <v>2181</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>35</v>
       </c>
@@ -1901,7 +1866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>36</v>
       </c>
@@ -1921,7 +1886,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>37</v>
       </c>
@@ -1938,7 +1903,7 @@
         <v>1812</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B41" t="s">
         <v>20</v>
       </c>
@@ -1964,7 +1929,7 @@
         <v>896602</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>77</v>
       </c>
@@ -1976,21 +1941,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4740AD8C-9B9A-4B25-9546-CEBF6367C655}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>96</v>
       </c>
@@ -2001,7 +1966,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>98</v>
       </c>
@@ -2012,7 +1977,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="8" t="s">
         <v>104</v>
       </c>
@@ -2024,23 +1989,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="27.28515625" customWidth="1"/>
+    <col min="2" max="2" width="27.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>61</v>
       </c>
@@ -2048,7 +2013,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>63</v>
       </c>
@@ -2057,7 +2022,7 @@
         <v>9000000000000</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>64</v>
       </c>
@@ -2066,7 +2031,7 @@
         <v>9000000000000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>65</v>
       </c>
@@ -2075,7 +2040,7 @@
         <v>9000000000000</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2084,7 +2049,7 @@
         <v>163000</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2092,7 +2057,7 @@
         <v>2760000</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -2100,7 +2065,7 @@
         <v>1400000</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
@@ -2109,7 +2074,7 @@
         <v>1400000</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -2118,15 +2083,16 @@
         <v>25090</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="5">
-        <v>10600</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <f>B5</f>
+        <v>163000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>66</v>
       </c>
@@ -2135,7 +2101,7 @@
         <v>9000000000000</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>67</v>
       </c>
@@ -2144,7 +2110,7 @@
         <v>9000000000000</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>68</v>
       </c>
@@ -2153,7 +2119,7 @@
         <v>9000000000000</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
@@ -2161,7 +2127,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>99</v>
       </c>
@@ -2170,7 +2136,7 @@
         <v>9000000000000</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>100</v>
       </c>
@@ -2179,7 +2145,7 @@
         <v>9000000000000</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>101</v>
       </c>

--- a/InputData/elec/MPCbS/Max Potential Capacity by Source.xlsx
+++ b/InputData/elec/MPCbS/Max Potential Capacity by Source.xlsx
@@ -9,20 +9,23 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11220"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Biomass" sheetId="6" r:id="rId2"/>
     <sheet name="MSW" sheetId="7" r:id="rId3"/>
-    <sheet name="MPCbS" sheetId="3" r:id="rId4"/>
+    <sheet name="Pumped Hydro" sheetId="8" r:id="rId4"/>
+    <sheet name="MPCbS" sheetId="3" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="111">
   <si>
     <t>MPCbS Max Potential Capacity by Source</t>
   </si>
@@ -349,6 +352,24 @@
   </si>
   <si>
     <t>Source: Gujarat ENVIS Centre</t>
+  </si>
+  <si>
+    <t>Pumped Hydro</t>
+  </si>
+  <si>
+    <t>Central Electricity Authority/Ministry of Power</t>
+  </si>
+  <si>
+    <t>Minutes of the meeting regarding operationalization of existing pump storage plants held on 28th June, 2017</t>
+  </si>
+  <si>
+    <t>http://www.cea.nic.in/reports/others/planning/resd/mom_pump_storage_plants.pdf</t>
+  </si>
+  <si>
+    <t>Page 4</t>
+  </si>
+  <si>
+    <t>Potential</t>
   </si>
 </sst>
 </file>
@@ -485,6 +506,55 @@
         <a:xfrm>
           <a:off x="5849972" y="0"/>
           <a:ext cx="5809403" cy="5829299"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>419924</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>143134</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6BF28FB-9B84-4CD6-BA4C-D2EE024A3CCF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4267200" y="0"/>
+          <a:ext cx="5906324" cy="1857634"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -785,7 +855,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -853,98 +925,134 @@
       <c r="B10" s="2" t="s">
         <v>74</v>
       </c>
+      <c r="F10" s="2" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>2</v>
       </c>
+      <c r="F11" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B12" s="3">
         <v>2017</v>
       </c>
+      <c r="F12" s="3">
+        <v>2017</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>3</v>
       </c>
+      <c r="F13" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B14" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="F14" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B17" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F17" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B18" s="7" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F18" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B19" s="3">
         <v>2016</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F19" s="3">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F20" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F21" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F22" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B23" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>85</v>
       </c>
@@ -958,9 +1066,10 @@
   <hyperlinks>
     <hyperlink ref="B14" r:id="rId1"/>
     <hyperlink ref="B7" r:id="rId2"/>
+    <hyperlink ref="F14" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -968,7 +1077,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
@@ -1990,13 +2099,52 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>96524</v>
+      </c>
+      <c r="B2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="H11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="H12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2088,8 +2236,8 @@
         <v>11</v>
       </c>
       <c r="B10" s="5">
-        <f>B5</f>
-        <v>163000</v>
+        <f>'Pumped Hydro'!A2</f>
+        <v>96524</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">

--- a/InputData/elec/MPCbS/Max Potential Capacity by Source.xlsx
+++ b/InputData/elec/MPCbS/Max Potential Capacity by Source.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-india\InputData\elec\MPCbS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganM\Documents\eps-india\InputData\elec\MPCbS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,10 +15,12 @@
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Biomass" sheetId="6" r:id="rId2"/>
     <sheet name="MSW" sheetId="7" r:id="rId3"/>
-    <sheet name="Pumped Hydro" sheetId="8" r:id="rId4"/>
-    <sheet name="MPCbS" sheetId="3" r:id="rId5"/>
+    <sheet name="Onshore Wind" sheetId="10" r:id="rId4"/>
+    <sheet name="Solar PV" sheetId="9" r:id="rId5"/>
+    <sheet name="Pumped Hydro" sheetId="8" r:id="rId6"/>
+    <sheet name="MPCbS" sheetId="3" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="109">
   <si>
     <t>MPCbS Max Potential Capacity by Source</t>
   </si>
@@ -258,45 +260,18 @@
     <t>Appendix A2</t>
   </si>
   <si>
-    <t>All Except Biomass, Onshore Wind</t>
-  </si>
-  <si>
     <t>Biomass</t>
   </si>
   <si>
-    <t>file:///C:/Users/deept/AppData/Local/Temp/CSTEP_RR_Re-assessment_of_India's_On-shore_Wind_Power_Potential_2016.pdf</t>
-  </si>
-  <si>
-    <t>Onshore Wind</t>
-  </si>
-  <si>
     <t>Source: MNRE</t>
   </si>
   <si>
     <t>Source: CSTEP, WFMS, SSEF</t>
   </si>
   <si>
-    <t>(5Dx7D array potential - conservative)</t>
-  </si>
-  <si>
-    <t>Re-assessment of India’s On-shore Wind Power Potential</t>
-  </si>
-  <si>
-    <t>CSTEP, WFMS, SSEF - for MNRE's Wind Potential Reassessment Committee</t>
-  </si>
-  <si>
-    <t>Appendix 2, pp 61</t>
-  </si>
-  <si>
     <t>Notes:</t>
   </si>
   <si>
-    <t>On-shore wind potential has been reassessed by CSTEP, WFMS &amp; SSEF study as part of MNRE's Potential Re-assessment committee in 2016</t>
-  </si>
-  <si>
-    <t>New estimate of on-shore wind potential for 100m hub height is considered, for a conservative wind farm array configuration of 5Dx7D</t>
-  </si>
-  <si>
     <t>be geographically resource-constrained. (An arbitrarily high number is chosen here, to ensure</t>
   </si>
   <si>
@@ -345,9 +320,6 @@
     <t>municipal solid waste</t>
   </si>
   <si>
-    <t>Remaining sources from TERI-WWF study, except for Biomass and MSW from MNRE latest available potential estimate.</t>
-  </si>
-  <si>
     <t>Page 4, in lieu of MNRE source no longer available on their site</t>
   </si>
   <si>
@@ -370,12 +342,39 @@
   </si>
   <si>
     <t>Potential</t>
+  </si>
+  <si>
+    <t>All Except Biomass, Onshore Wind, Solar PV, Pumped Hydro</t>
+  </si>
+  <si>
+    <t>Onshore Wind and Solar</t>
+  </si>
+  <si>
+    <t>U.S. National Renewable Energy Laboratory</t>
+  </si>
+  <si>
+    <t>Renewable Energy Data Explorer</t>
+  </si>
+  <si>
+    <t>For wind and solar, we ran NREL's Renewable Energy Data Explorer tool, using the suggested</t>
+  </si>
+  <si>
+    <t>default parameters.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.re-explorer.org/ </t>
+  </si>
+  <si>
+    <t>Analysis and Downloads tab accessed 1/29/2021</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -436,7 +435,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -450,6 +449,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -518,6 +518,168 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>104776</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>65719</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>626323</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>109538</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="104776" y="65719"/>
+          <a:ext cx="9589347" cy="4930144"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>149311</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>30974</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>109538</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9864811" y="66675"/>
+          <a:ext cx="9597163" cy="4929188"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>465540</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>18444</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="57150" y="57150"/>
+          <a:ext cx="9476190" cy="4847619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>642937</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>388162</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>3779</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9710737" y="47625"/>
+          <a:ext cx="9460725" cy="4842479"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -853,10 +1015,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -875,10 +1037,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
@@ -886,7 +1048,7 @@
         <v>69</v>
       </c>
       <c r="F4" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
@@ -894,7 +1056,7 @@
         <v>2011</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
@@ -902,7 +1064,7 @@
         <v>70</v>
       </c>
       <c r="F6" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
@@ -910,7 +1072,7 @@
         <v>71</v>
       </c>
       <c r="F7" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
@@ -918,15 +1080,15 @@
         <v>72</v>
       </c>
       <c r="F8" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B10" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
@@ -971,23 +1133,23 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B17" s="2" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B18" s="7" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="F18" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B19" s="3">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F19" s="3">
         <v>2017</v>
@@ -995,71 +1157,61 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="F20" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B21" s="4" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B21" t="s">
-        <v>75</v>
-      </c>
       <c r="F21" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="F22" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B23" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A33" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1067,9 +1219,10 @@
     <hyperlink ref="B14" r:id="rId1"/>
     <hyperlink ref="B7" r:id="rId2"/>
     <hyperlink ref="F14" r:id="rId3"/>
+    <hyperlink ref="B21" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId4"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -1792,7 +1945,7 @@
         <v>2131</v>
       </c>
       <c r="K29" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.45">
@@ -2040,7 +2193,7 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -2061,34 +2214,34 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="B2">
         <v>1700</v>
       </c>
       <c r="C2" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="B3">
         <v>1300</v>
       </c>
       <c r="C3" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="8" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -2098,6 +2251,56 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A29:B29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>100</v>
+      </c>
+      <c r="B29">
+        <f>9*1000000</f>
+        <v>9000000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A29:B29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>100</v>
+      </c>
+      <c r="B29">
+        <f>98*1000000</f>
+        <v>98000000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H12"/>
   <sheetViews>
@@ -2109,7 +2312,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
@@ -2117,17 +2320,17 @@
         <v>96524</v>
       </c>
       <c r="B2" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="H11" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="H12" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -2136,15 +2339,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2153,7 +2356,7 @@
     <col min="2" max="2" width="27.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>61</v>
       </c>
@@ -2161,7 +2364,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>63</v>
       </c>
@@ -2170,7 +2373,7 @@
         <v>9000000000000</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>64</v>
       </c>
@@ -2179,7 +2382,7 @@
         <v>9000000000000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>65</v>
       </c>
@@ -2188,7 +2391,7 @@
         <v>9000000000000</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2197,32 +2400,34 @@
         <v>163000</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6">
-        <v>2760000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+        <f>'Onshore Wind'!$B$29</f>
+        <v>9000000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7">
-        <v>1400000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+        <f>'Solar PV'!B29</f>
+        <v>98000000</v>
+      </c>
+      <c r="D7" s="9"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="5">
-        <f>B7</f>
         <v>1400000</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -2231,7 +2436,7 @@
         <v>25090</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
@@ -2240,7 +2445,7 @@
         <v>96524</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>66</v>
       </c>
@@ -2249,7 +2454,7 @@
         <v>9000000000000</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>67</v>
       </c>
@@ -2258,7 +2463,7 @@
         <v>9000000000000</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>68</v>
       </c>
@@ -2267,7 +2472,7 @@
         <v>9000000000000</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
@@ -2275,18 +2480,18 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="B15" s="6">
         <f>B11</f>
         <v>9000000000000</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="B16" s="6">
         <f>B11</f>
@@ -2295,7 +2500,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="B17" s="6">
         <f>MSW!B2+MSW!B3</f>
